--- a/AppService/Web/QuanLyDuAn/Content/Template/OperationManagement/Report0002_DefectFeedback.xlsx
+++ b/AppService/Web/QuanLyDuAn/Content/Template/OperationManagement/Report0002_DefectFeedback.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TayHo\SystemCore\AppService\Web\QuanLyDuAn\Content\Template\OperationManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A63DC15-B6EB-4F92-895B-5D3A28D5D0AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BAA2CD3-71F8-48E5-A732-8D72D920C6DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>STT</t>
-  </si>
-  <si>
-    <t>TỔNG HỢP COMPLAINT</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>CĂN HỘ</t>
   </si>
@@ -42,23 +36,38 @@
     <t>SỐ ĐIỆN THOẠI</t>
   </si>
   <si>
-    <t xml:space="preserve">NỘI DUNG </t>
-  </si>
-  <si>
     <t>NGÀY GHI NHẬN</t>
   </si>
   <si>
-    <t>PHƯƠNG ÁN XỬ LÝ</t>
-  </si>
-  <si>
     <t>NGÀY HOÀN THÀNH</t>
+  </si>
+  <si>
+    <t>TỔNG HỢP DEFECT CĂN HỘ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NỘI DUNG DEFECT </t>
+  </si>
+  <si>
+    <t>HÌNH ẢNH</t>
+  </si>
+  <si>
+    <t>NGÀY HẸN SỬA CHỮA</t>
+  </si>
+  <si>
+    <t>TÌNH TRẠNG</t>
+  </si>
+  <si>
+    <t>GHI CHÚ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,24 +77,16 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="20"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -97,7 +98,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -129,7 +130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -142,24 +143,17 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -441,86 +435,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="C3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="G3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:13" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -942,54 +949,9 @@
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
